--- a/data/faq_dataset.xlsx
+++ b/data/faq_dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laskar AI\chatBot-PMB\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24D2886C-F919-49B2-8D8B-DDE7E814A1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCE3D69-5228-4FFA-A83C-E0BDA4FB05CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -586,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -973,5 +973,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>